--- a/routes/data.xlsx
+++ b/routes/data.xlsx
@@ -24,30 +24,15 @@
     <t>Material</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4–12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6–10 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Comparable in performance with steel; expensive </t>
   </si>
   <si>
-    <t xml:space="preserve"> 3–7 </t>
-  </si>
-  <si>
     <t xml:space="preserve">The traditional choice: easily formed and heat treated </t>
   </si>
   <si>
     <t>Better than spring steel; but high loss factor</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.5–2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20–50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expensive, corrosion-resistant </t>
   </si>
   <si>
@@ -60,45 +45,24 @@
     <t>M1 (MJ/mm3)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.9–2.6 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Better than steel; corrosion-resistant; expensive </t>
   </si>
   <si>
-    <t xml:space="preserve">3.9–6.5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Better than steel; expensive </t>
   </si>
   <si>
-    <t>1.0–1.8</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Better than spring steel; less expensive than CFRP </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4–0.9 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Poor, because of high density </t>
   </si>
   <si>
-    <t xml:space="preserve">0.3–0.7 </t>
-  </si>
-  <si>
     <t xml:space="preserve">On a weight basis, wood makes good springs </t>
   </si>
   <si>
-    <t xml:space="preserve">1.3–2.1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">As good as steel, but with a high loss factor </t>
   </si>
   <si>
-    <t>18–45</t>
-  </si>
-  <si>
     <t>Outstanding; 20 times better than spring steel; but with high loss factor</t>
   </si>
   <si>
@@ -127,6 +91,42 @@
   </si>
   <si>
     <t xml:space="preserve">ti alloys     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9-2.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9-6.5 </t>
+  </si>
+  <si>
+    <t>1.0-1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4-0.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3-0.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3-2.1 </t>
+  </si>
+  <si>
+    <t>18-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5-2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20-50</t>
   </si>
 </sst>
 </file>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,123 +489,123 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
